--- a/input_data/TKB_2324_Tieuhoc.xlsx
+++ b/input_data/TKB_2324_Tieuhoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhdh/Craft/Frappe/parent_portal/pp-frappe-da/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B324375F-ECBC-554E-B026-8A24DAC16C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397496B7-BC8B-4D4A-96AA-798C2CADC0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="760" windowWidth="30140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="760" windowWidth="30140" windowHeight="21580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="91">
   <si>
     <t>Thứ</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Công Nghệ</t>
   </si>
   <si>
-    <t>Tiếng Viêt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thứ </t>
   </si>
   <si>
@@ -284,16 +281,10 @@
     <t>Khoa Học</t>
   </si>
   <si>
-    <t>Nhạc</t>
-  </si>
-  <si>
     <t>Lịch Sử Và Địa Lý</t>
   </si>
   <si>
     <t>Lịch Sử</t>
-  </si>
-  <si>
-    <t>Đọc</t>
   </si>
   <si>
     <t>Lớp 5.1
@@ -340,22 +331,13 @@
     <t xml:space="preserve">Âm Nhạc </t>
   </si>
   <si>
-    <t>Địa</t>
-  </si>
-  <si>
-    <t>Kĩ thuật</t>
-  </si>
-  <si>
-    <t>Lịch sử</t>
-  </si>
-  <si>
     <t>Âm Nhạc</t>
   </si>
   <si>
-    <t>Địa lí</t>
+    <t>Địa Lý</t>
   </si>
   <si>
-    <t>Địa Lý</t>
+    <t>Lịch Sử</t>
   </si>
 </sst>
 </file>
@@ -643,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3863,7 +3845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7081,7 +7065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8173,7 +8159,7 @@
         <v>41</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10299,7 +10285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10312,7 +10300,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -10321,25 +10309,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -10624,7 +10612,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>15</v>
@@ -10656,7 +10644,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>64</v>
@@ -11089,7 +11077,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>41</v>
@@ -11197,7 +11185,7 @@
         <v>15</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>15</v>
@@ -11220,22 +11208,22 @@
         <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11325,7 +11313,7 @@
         <v>26</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>40</v>
@@ -11415,7 +11403,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>41</v>
@@ -11459,7 +11447,7 @@
         <v>15</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11607,13 +11595,13 @@
         <v>15</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>64</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>26</v>
@@ -11831,7 +11819,7 @@
         <v>26</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>14</v>
@@ -11898,16 +11886,16 @@
         <v>14</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11985,7 +11973,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>16</v>
@@ -12052,13 +12040,13 @@
         <v>26</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>15</v>
@@ -12276,7 +12264,7 @@
         <v>16</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>26</v>
@@ -12497,7 +12485,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>64</v>
@@ -12506,10 +12494,10 @@
         <v>15</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>42</v>
@@ -12529,10 +12517,10 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>15</v>
@@ -12541,7 +12529,7 @@
         <v>15</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>15</v>
@@ -12576,10 +12564,10 @@
         <v>15</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13521,8 +13509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13532,7 +13520,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -13541,31 +13529,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -13635,7 +13623,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>14</v>
@@ -13731,10 +13719,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -13883,7 +13871,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -13898,7 +13886,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>14</v>
@@ -13921,13 +13909,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>16</v>
@@ -13936,7 +13924,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
@@ -14173,7 +14161,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -14190,7 +14178,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
@@ -14263,7 +14251,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -14281,7 +14269,7 @@
         <v>26</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>40</v>
@@ -14313,7 +14301,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>64</v>
@@ -14357,7 +14345,7 @@
         <v>15</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>26</v>
@@ -14529,7 +14517,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -14547,13 +14535,13 @@
         <v>30</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14573,7 +14561,7 @@
         <v>32</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>15</v>
@@ -14585,7 +14573,7 @@
         <v>30</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>15</v>
@@ -14605,19 +14593,19 @@
         <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>15</v>
@@ -14626,7 +14614,7 @@
         <v>15</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>15</v>
@@ -14699,7 +14687,7 @@
         <v>40</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>16</v>
@@ -14795,7 +14783,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>26</v>
@@ -14813,7 +14801,7 @@
         <v>26</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>31</v>
@@ -14848,7 +14836,7 @@
         <v>14</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>16</v>
@@ -14892,7 +14880,7 @@
         <v>16</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>40</v>
@@ -15006,7 +14994,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>30</v>
@@ -15061,7 +15049,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>15</v>
@@ -15070,7 +15058,7 @@
         <v>24</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>26</v>
@@ -15079,13 +15067,13 @@
         <v>32</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15228,7 +15216,7 @@
         <v>40</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>16</v>
@@ -15368,7 +15356,7 @@
         <v>14</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -15377,7 +15365,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>16</v>
@@ -15406,7 +15394,7 @@
         <v>14</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>26</v>
@@ -15421,7 +15409,7 @@
         <v>15</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>14</v>
@@ -15485,7 +15473,7 @@
         <v>16</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>16</v>
@@ -15523,7 +15511,7 @@
         <v>16</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>16</v>
@@ -15593,7 +15581,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>15</v>
@@ -15602,7 +15590,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>31</v>
@@ -15611,7 +15599,7 @@
         <v>15</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>15</v>
@@ -15795,13 +15783,13 @@
         <v>40</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>30</v>
@@ -15906,7 +15894,7 @@
         <v>40</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>41</v>
@@ -15935,7 +15923,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>30</v>
@@ -15944,7 +15932,7 @@
         <v>26</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>24</v>
@@ -16035,7 +16023,7 @@
         <v>16</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16055,7 +16043,7 @@
         <v>40</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>16</v>
@@ -16140,10 +16128,10 @@
         <v>15</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>26</v>
@@ -16163,7 +16151,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>26</v>
@@ -16184,7 +16172,7 @@
         <v>32</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>15</v>
@@ -16213,19 +16201,19 @@
         <v>15</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/input_data/TKB_2324_Tieuhoc.xlsx
+++ b/input_data/TKB_2324_Tieuhoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhdh/Craft/Frappe/parent_portal/pp-frappe-da/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397496B7-BC8B-4D4A-96AA-798C2CADC0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9048035B-6639-CB47-A3EB-65C7A9F51437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="760" windowWidth="30140" windowHeight="21580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="760" windowWidth="30140" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,19 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="cySi6ldIXnk/XXgtxi5YbYoua6/WDZiZpPV70icuSjc="/>
     </ext>
@@ -10285,8 +10296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11447,7 +11458,7 @@
         <v>15</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12567,7 +12578,7 @@
         <v>74</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13509,8 +13520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView topLeftCell="A15" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
